--- a/biology/Botanique/Pastinaca_latifolia/Pastinaca_latifolia.xlsx
+++ b/biology/Botanique/Pastinaca_latifolia/Pastinaca_latifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pastinaca latifolia, le Panais à larges feuilles[1], est une espèce de panais endémique de la Corse[2]. Présent à moins de 1 000 m d'altitude, sa floraison a lieu entre juin et août. Il a été décrit en 1828 dans les mémoires de la Société de physique et d'histoire naturelle de Genève[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pastinaca latifolia, le Panais à larges feuilles, est une espèce de panais endémique de la Corse. Présent à moins de 1 000 m d'altitude, sa floraison a lieu entre juin et août. Il a été décrit en 1828 dans les mémoires de la Société de physique et d'histoire naturelle de Genève.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a de grands rapports avec Pastinaca sativa et Pastinaca divaricata mais en diffère tout de même[3].
-Deux variétés ont été observées en 1828. L'une recouverte d'un duvet velouté, cueillie près de St. Florent (Haute-Corse) (Pastinaca kochii var. latifolia). L'autre a les feuilles glabres au-dessus et un peu pubescentes en dessous. (Individu cultivé en 1828. Origine inconnue). Les segments des feuilles de ces deux variétés sont ovales, dilatés à la base, un peu en cœur et presque doubles en grandeur de ceux du panais cultivé et du Pastinaca divaricata[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a de grands rapports avec Pastinaca sativa et Pastinaca divaricata mais en diffère tout de même.
+Deux variétés ont été observées en 1828. L'une recouverte d'un duvet velouté, cueillie près de St. Florent (Haute-Corse) (Pastinaca kochii var. latifolia). L'autre a les feuilles glabres au-dessus et un peu pubescentes en dessous. (Individu cultivé en 1828. Origine inconnue). Les segments des feuilles de ces deux variétés sont ovales, dilatés à la base, un peu en cœur et presque doubles en grandeur de ceux du panais cultivé et du Pastinaca divaricata.
 </t>
         </is>
       </c>
